--- a/Code/Results/Cases/Case_4_241/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_241/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.65761628309282</v>
+        <v>18.60186559259322</v>
       </c>
       <c r="C2">
-        <v>21.34701175590226</v>
+        <v>15.10079155969918</v>
       </c>
       <c r="D2">
-        <v>12.21081797545763</v>
+        <v>15.04923624578992</v>
       </c>
       <c r="E2">
-        <v>13.20795809767682</v>
+        <v>16.47344789375447</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>48.18367317136561</v>
+        <v>49.52032575154075</v>
       </c>
       <c r="H2">
-        <v>13.84718598763298</v>
+        <v>19.05053363868763</v>
       </c>
       <c r="I2">
-        <v>19.07577215666397</v>
+        <v>26.26998776359458</v>
       </c>
       <c r="J2">
-        <v>5.859002318571264</v>
+        <v>9.411846784306533</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.92129998439768</v>
+        <v>18.06459820391709</v>
       </c>
       <c r="C3">
-        <v>19.82355491132178</v>
+        <v>14.58921765728601</v>
       </c>
       <c r="D3">
-        <v>11.67740202125376</v>
+        <v>14.99556577656222</v>
       </c>
       <c r="E3">
-        <v>12.64142137740854</v>
+        <v>16.42078260341555</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>45.92425998021384</v>
+        <v>49.24180373085828</v>
       </c>
       <c r="H3">
-        <v>13.5530724975333</v>
+        <v>19.07581254945776</v>
       </c>
       <c r="I3">
-        <v>18.84009670288939</v>
+        <v>26.34656012163986</v>
       </c>
       <c r="J3">
-        <v>5.770455660515712</v>
+        <v>9.424415385093347</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.79913104675046</v>
+        <v>17.73078652705433</v>
       </c>
       <c r="C4">
-        <v>18.84190044263057</v>
+        <v>14.26981271441783</v>
       </c>
       <c r="D4">
-        <v>11.34984028367152</v>
+        <v>14.96626797246648</v>
       </c>
       <c r="E4">
-        <v>12.29430026718416</v>
+        <v>16.39247325198864</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>44.56257863233456</v>
+        <v>49.09010777741227</v>
       </c>
       <c r="H4">
-        <v>13.38788885096668</v>
+        <v>19.09648318718517</v>
       </c>
       <c r="I4">
-        <v>18.72425117278195</v>
+        <v>26.40141802202226</v>
       </c>
       <c r="J4">
-        <v>5.719854764176579</v>
+        <v>9.433707329963505</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.32753265147141</v>
+        <v>17.59398832533816</v>
       </c>
       <c r="C5">
-        <v>18.43005458587438</v>
+        <v>14.13853945566916</v>
       </c>
       <c r="D5">
-        <v>11.21646138665417</v>
+        <v>14.95525466792139</v>
       </c>
       <c r="E5">
-        <v>12.15314776226586</v>
+        <v>16.38195536308291</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>44.01447392200917</v>
+        <v>49.03317941890523</v>
       </c>
       <c r="H5">
-        <v>13.32431244136726</v>
+        <v>19.10619474344541</v>
       </c>
       <c r="I5">
-        <v>18.6838878038595</v>
+        <v>26.42573045349909</v>
       </c>
       <c r="J5">
-        <v>5.700155037926252</v>
+        <v>9.437889351207309</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.2483542943793</v>
+        <v>17.57123343897534</v>
       </c>
       <c r="C6">
-        <v>18.36094941273897</v>
+        <v>14.11668112873222</v>
       </c>
       <c r="D6">
-        <v>11.19432415233843</v>
+        <v>14.95348199818504</v>
       </c>
       <c r="E6">
-        <v>12.12973168241835</v>
+        <v>16.38027052768145</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>43.92388374873627</v>
+        <v>49.0240225108813</v>
       </c>
       <c r="H6">
-        <v>13.31397728676384</v>
+        <v>19.10788493116121</v>
       </c>
       <c r="I6">
-        <v>18.6775867518311</v>
+        <v>26.42988530058553</v>
       </c>
       <c r="J6">
-        <v>5.696938744311281</v>
+        <v>9.43860764233921</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.79282909229513</v>
+        <v>17.72894442466023</v>
       </c>
       <c r="C7">
-        <v>18.83639420663889</v>
+        <v>14.26804652271538</v>
       </c>
       <c r="D7">
-        <v>11.34804089156621</v>
+        <v>14.9661156870538</v>
       </c>
       <c r="E7">
-        <v>12.29239523726712</v>
+        <v>16.39232727395023</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>44.55515867014378</v>
+        <v>49.08932019269835</v>
       </c>
       <c r="H7">
-        <v>13.38701648794986</v>
+        <v>19.09660895459353</v>
       </c>
       <c r="I7">
-        <v>18.72367965281763</v>
+        <v>26.40173800239743</v>
       </c>
       <c r="J7">
-        <v>5.719585394258649</v>
+        <v>9.433762129622259</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.07044040861791</v>
+        <v>18.41755902037194</v>
       </c>
       <c r="C8">
-        <v>20.83120359757316</v>
+        <v>14.92562597230209</v>
       </c>
       <c r="D8">
-        <v>12.02696595305359</v>
+        <v>15.02997604783018</v>
       </c>
       <c r="E8">
-        <v>13.01252550979331</v>
+        <v>16.45445679007261</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>47.39949243960155</v>
+        <v>49.42030383091194</v>
       </c>
       <c r="H8">
-        <v>13.74249780347543</v>
+        <v>19.05817718460541</v>
       </c>
       <c r="I8">
-        <v>18.98827451857362</v>
+        <v>26.29475363681401</v>
       </c>
       <c r="J8">
-        <v>5.827673146859333</v>
+        <v>9.415853303505683</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.10225048426291</v>
+        <v>19.72777929127363</v>
       </c>
       <c r="C9">
-        <v>24.38569590365204</v>
+        <v>16.16440061315024</v>
       </c>
       <c r="D9">
-        <v>13.35445807784401</v>
+        <v>15.18388246715516</v>
       </c>
       <c r="E9">
-        <v>14.42697987423946</v>
+        <v>16.60794603795851</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>53.17125773746941</v>
+        <v>50.2207858006281</v>
       </c>
       <c r="H9">
-        <v>14.56788541126158</v>
+        <v>19.02394783947749</v>
       </c>
       <c r="I9">
-        <v>19.75439835387454</v>
+        <v>26.14781331876145</v>
       </c>
       <c r="J9">
-        <v>6.070815560927722</v>
+        <v>9.393250543403818</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.81531844964486</v>
+        <v>20.65491437900855</v>
       </c>
       <c r="C10">
-        <v>26.79478722220815</v>
+        <v>17.03319851627699</v>
       </c>
       <c r="D10">
-        <v>14.32519072170736</v>
+        <v>15.313923332214</v>
       </c>
       <c r="E10">
-        <v>15.46551229233348</v>
+        <v>16.73953426974677</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>57.52960663574588</v>
+        <v>50.89807844232674</v>
       </c>
       <c r="H10">
-        <v>15.26131994297983</v>
+        <v>19.02422263026427</v>
       </c>
       <c r="I10">
-        <v>20.49306761977396</v>
+        <v>26.0790070554962</v>
       </c>
       <c r="J10">
-        <v>6.270491675457193</v>
+        <v>9.384301363569172</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.99949203893969</v>
+        <v>21.06696265114226</v>
       </c>
       <c r="C11">
-        <v>27.85087001800487</v>
+        <v>17.41761756898315</v>
       </c>
       <c r="D11">
-        <v>14.76612974133698</v>
+        <v>15.37663452852016</v>
       </c>
       <c r="E11">
-        <v>15.93823788092288</v>
+        <v>16.80335895522751</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>59.54176283939554</v>
+        <v>51.22470844464529</v>
       </c>
       <c r="H11">
-        <v>15.59786866341748</v>
+        <v>19.02992949333699</v>
       </c>
       <c r="I11">
-        <v>20.87283375856684</v>
+        <v>26.05637303832021</v>
       </c>
       <c r="J11">
-        <v>6.366442412660836</v>
+        <v>9.381897166128802</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.44109852316</v>
+        <v>21.22145003725028</v>
       </c>
       <c r="C12">
-        <v>28.24545136783844</v>
+        <v>17.56150252242429</v>
       </c>
       <c r="D12">
-        <v>14.9330913146443</v>
+        <v>15.40088013947292</v>
       </c>
       <c r="E12">
-        <v>16.11738498808369</v>
+        <v>16.82808556810081</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>60.30857843501162</v>
+        <v>51.35097521975063</v>
       </c>
       <c r="H12">
-        <v>15.72856058299255</v>
+        <v>19.03289711619911</v>
       </c>
       <c r="I12">
-        <v>21.02341817743789</v>
+        <v>26.04906096469591</v>
       </c>
       <c r="J12">
-        <v>6.403567652097156</v>
+        <v>9.381226646407818</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.3462871783134</v>
+        <v>21.18824942214702</v>
       </c>
       <c r="C13">
-        <v>28.16070158002056</v>
+        <v>17.53059126984154</v>
       </c>
       <c r="D13">
-        <v>14.89713189040926</v>
+        <v>15.39563646970608</v>
       </c>
       <c r="E13">
-        <v>16.07879432114053</v>
+        <v>16.82273566014089</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>60.14320241946438</v>
+        <v>51.32366813102319</v>
       </c>
       <c r="H13">
-        <v>15.70026545035971</v>
+        <v>19.0322220589129</v>
       </c>
       <c r="I13">
-        <v>20.99067764767402</v>
+        <v>26.05057956364599</v>
       </c>
       <c r="J13">
-        <v>6.395535904484642</v>
+        <v>9.381360382830312</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.03595749698251</v>
+        <v>21.07970421983601</v>
       </c>
       <c r="C14">
-        <v>27.88343691419943</v>
+        <v>17.4294895710313</v>
       </c>
       <c r="D14">
-        <v>14.77986538123064</v>
+        <v>15.37861932140882</v>
       </c>
       <c r="E14">
-        <v>15.95297296131914</v>
+        <v>16.80538212872059</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>59.60474745281756</v>
+        <v>51.23504531078065</v>
       </c>
       <c r="H14">
-        <v>15.60855430424702</v>
+        <v>19.03015745698455</v>
       </c>
       <c r="I14">
-        <v>20.88508372534951</v>
+        <v>26.05574616820229</v>
       </c>
       <c r="J14">
-        <v>6.369480526388742</v>
+        <v>9.381837193246199</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.8449962396738</v>
+        <v>21.01301156637203</v>
       </c>
       <c r="C15">
-        <v>27.71292225587217</v>
+        <v>17.36733858801727</v>
       </c>
       <c r="D15">
-        <v>14.70803787550669</v>
+        <v>15.36826031265942</v>
       </c>
       <c r="E15">
-        <v>15.87592518794185</v>
+        <v>16.79482481642839</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>59.27558326526463</v>
+        <v>51.18109450703624</v>
       </c>
       <c r="H15">
-        <v>15.55280859299251</v>
+        <v>19.02899797013985</v>
       </c>
       <c r="I15">
-        <v>20.82130178800482</v>
+        <v>26.05907517947335</v>
       </c>
       <c r="J15">
-        <v>6.35362565311251</v>
+        <v>9.382160500002298</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.73695467607738</v>
+        <v>20.62777749902213</v>
       </c>
       <c r="C16">
-        <v>26.72500061556464</v>
+        <v>17.0078467496946</v>
       </c>
       <c r="D16">
-        <v>14.29636706067062</v>
+        <v>15.309895456064</v>
       </c>
       <c r="E16">
-        <v>15.43463129427604</v>
+        <v>16.73544190660823</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>57.39874777594532</v>
+        <v>50.87709809616788</v>
       </c>
       <c r="H16">
-        <v>15.23976775547933</v>
+        <v>19.02396234298885</v>
       </c>
       <c r="I16">
-        <v>20.46916986118367</v>
+        <v>26.08066173420582</v>
       </c>
       <c r="J16">
-        <v>6.264328496945327</v>
+        <v>9.384492044144888</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.04465083191987</v>
+        <v>20.38885041373343</v>
       </c>
       <c r="C17">
-        <v>26.1090044079775</v>
+        <v>16.78444401560378</v>
       </c>
       <c r="D17">
-        <v>14.04369627795652</v>
+        <v>15.27499208918206</v>
       </c>
       <c r="E17">
-        <v>15.164037203324</v>
+        <v>16.70001924641772</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>56.25528417035221</v>
+        <v>50.69529296573102</v>
       </c>
       <c r="H17">
-        <v>15.05327295867198</v>
+        <v>19.02230578279321</v>
       </c>
       <c r="I17">
-        <v>20.26468606510417</v>
+        <v>26.09613331202883</v>
       </c>
       <c r="J17">
-        <v>6.21089408286171</v>
+        <v>9.386349460480877</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.64172309878803</v>
+        <v>20.25051992471229</v>
       </c>
       <c r="C18">
-        <v>25.75092457976892</v>
+        <v>16.65493890035334</v>
       </c>
       <c r="D18">
-        <v>13.89829768379058</v>
+        <v>15.25525204050172</v>
       </c>
       <c r="E18">
-        <v>15.00841742267527</v>
+        <v>16.68001904390842</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>55.60032128467483</v>
+        <v>50.59247279840704</v>
       </c>
       <c r="H18">
-        <v>14.94797764276382</v>
+        <v>19.02187817437645</v>
       </c>
       <c r="I18">
-        <v>20.15115891999642</v>
+        <v>26.10584714860782</v>
       </c>
       <c r="J18">
-        <v>6.180637827791265</v>
+        <v>9.387574679658213</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.50447508936154</v>
+        <v>20.2035328148003</v>
       </c>
       <c r="C19">
-        <v>25.62902547182134</v>
+        <v>16.61092157376293</v>
       </c>
       <c r="D19">
-        <v>13.84905465441407</v>
+        <v>15.24862639193809</v>
       </c>
       <c r="E19">
-        <v>14.95572844415189</v>
+        <v>16.67331191428766</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>55.37901611397614</v>
+        <v>50.55796257842258</v>
       </c>
       <c r="H19">
-        <v>14.91265914630495</v>
+        <v>19.02182346743978</v>
       </c>
       <c r="I19">
-        <v>20.11340822758786</v>
+        <v>26.10927566333395</v>
       </c>
       <c r="J19">
-        <v>6.170474136167217</v>
+        <v>9.388016454812146</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.11883501144311</v>
+        <v>20.41437950587262</v>
       </c>
       <c r="C20">
-        <v>26.17496630103531</v>
+        <v>16.80833113835511</v>
       </c>
       <c r="D20">
-        <v>14.07060022254869</v>
+        <v>15.27867298588802</v>
       </c>
       <c r="E20">
-        <v>15.19283994697595</v>
+        <v>16.70375143157006</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>56.3767219849931</v>
+        <v>50.71446597585375</v>
       </c>
       <c r="H20">
-        <v>15.07292016829144</v>
+        <v>19.02242773977325</v>
       </c>
       <c r="I20">
-        <v>20.28602737540588</v>
+        <v>26.09440189292598</v>
       </c>
       <c r="J20">
-        <v>6.216532451637535</v>
+        <v>9.386135496836593</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.12729052593622</v>
+        <v>21.11162966747915</v>
       </c>
       <c r="C21">
-        <v>27.96501762071383</v>
+        <v>17.45923233633296</v>
       </c>
       <c r="D21">
-        <v>14.81430884616862</v>
+        <v>15.38360425591954</v>
       </c>
       <c r="E21">
-        <v>15.98992503153504</v>
+        <v>16.8104642532356</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>59.76276674969031</v>
+        <v>51.26100669710198</v>
       </c>
       <c r="H21">
-        <v>15.63540203853818</v>
+        <v>19.03074196323616</v>
       </c>
       <c r="I21">
-        <v>20.91591128140303</v>
+        <v>26.05419434597817</v>
       </c>
       <c r="J21">
-        <v>6.377111668806884</v>
+        <v>9.381690630442838</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.40042660717978</v>
+        <v>21.55825026582948</v>
       </c>
       <c r="C22">
-        <v>29.10405366667748</v>
+        <v>17.87475449537398</v>
       </c>
       <c r="D22">
-        <v>15.30036640902702</v>
+        <v>15.45508041556944</v>
       </c>
       <c r="E22">
-        <v>16.51174337747705</v>
+        <v>16.88345083583094</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>62.00452812339437</v>
+        <v>51.63319141288404</v>
       </c>
       <c r="H22">
-        <v>16.02207912321149</v>
+        <v>19.04087834354905</v>
       </c>
       <c r="I22">
-        <v>21.3673249590058</v>
+        <v>26.03525984544931</v>
       </c>
       <c r="J22">
-        <v>6.486702665204504</v>
+        <v>9.380184000807947</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.72440624449545</v>
+        <v>21.32075640357863</v>
       </c>
       <c r="C23">
-        <v>28.49880747395269</v>
+        <v>17.65392642841513</v>
       </c>
       <c r="D23">
-        <v>15.04090844515486</v>
+        <v>15.41667162989496</v>
       </c>
       <c r="E23">
-        <v>16.23311344063362</v>
+        <v>16.84420411503792</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>60.80515069627437</v>
+        <v>51.4332077647712</v>
       </c>
       <c r="H23">
-        <v>15.81387671058096</v>
+        <v>19.03503697392977</v>
       </c>
       <c r="I23">
-        <v>21.12258864496056</v>
+        <v>26.0446895935732</v>
       </c>
       <c r="J23">
-        <v>6.427765887768729</v>
+        <v>9.380860120042096</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.08531167471518</v>
+        <v>20.40284080726684</v>
       </c>
       <c r="C24">
-        <v>26.14515721590958</v>
+        <v>16.79753508619852</v>
       </c>
       <c r="D24">
-        <v>14.05843737452421</v>
+        <v>15.27700783497177</v>
       </c>
       <c r="E24">
-        <v>15.17981839376215</v>
+        <v>16.70206297359061</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>56.32181242393847</v>
+        <v>50.70579255019222</v>
       </c>
       <c r="H24">
-        <v>15.06403169065475</v>
+        <v>19.02237096878417</v>
       </c>
       <c r="I24">
-        <v>20.27636644230589</v>
+        <v>26.09518211741011</v>
       </c>
       <c r="J24">
-        <v>6.213981904159437</v>
+        <v>9.386231739657644</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.05652735107139</v>
+        <v>19.37882340619233</v>
       </c>
       <c r="C25">
-        <v>23.46089355291391</v>
+        <v>15.83585391665332</v>
       </c>
       <c r="D25">
-        <v>12.99611312427972</v>
+        <v>15.13922570968535</v>
       </c>
       <c r="E25">
-        <v>14.04444316136139</v>
+        <v>16.56307915718248</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>51.58975114405818</v>
+        <v>49.98831080081817</v>
       </c>
       <c r="H25">
-        <v>14.32998653072701</v>
+        <v>19.02876585531095</v>
       </c>
       <c r="I25">
-        <v>19.51809631734591</v>
+        <v>26.18074730538033</v>
       </c>
       <c r="J25">
-        <v>6.001506276904245</v>
+        <v>9.398022172077329</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_241/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_241/res_line/loading_percent.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.60186559259322</v>
+        <v>24.65761628309275</v>
       </c>
       <c r="C2">
-        <v>15.10079155969918</v>
+        <v>21.34701175590225</v>
       </c>
       <c r="D2">
-        <v>15.04923624578992</v>
+        <v>12.21081797545755</v>
       </c>
       <c r="E2">
-        <v>16.47344789375447</v>
+        <v>13.2079580976768</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>49.52032575154075</v>
+        <v>48.1836731713659</v>
       </c>
       <c r="H2">
-        <v>19.05053363868763</v>
+        <v>13.84718598763302</v>
       </c>
       <c r="I2">
-        <v>26.26998776359458</v>
+        <v>19.07577215666414</v>
       </c>
       <c r="J2">
-        <v>9.411846784306533</v>
+        <v>5.859002318571364</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.06459820391709</v>
+        <v>22.92129998439765</v>
       </c>
       <c r="C3">
-        <v>14.58921765728601</v>
+        <v>19.82355491132177</v>
       </c>
       <c r="D3">
-        <v>14.99556577656222</v>
+        <v>11.67740202125384</v>
       </c>
       <c r="E3">
-        <v>16.42078260341555</v>
+        <v>12.64142137740856</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>49.24180373085828</v>
+        <v>45.92425998021399</v>
       </c>
       <c r="H3">
-        <v>19.07581254945776</v>
+        <v>13.55307249753339</v>
       </c>
       <c r="I3">
-        <v>26.34656012163986</v>
+        <v>18.8400967028895</v>
       </c>
       <c r="J3">
-        <v>9.424415385093347</v>
+        <v>5.770455660515658</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.73078652705433</v>
+        <v>21.79913104675036</v>
       </c>
       <c r="C4">
-        <v>14.26981271441783</v>
+        <v>18.84190044263046</v>
       </c>
       <c r="D4">
-        <v>14.96626797246648</v>
+        <v>11.34984028367152</v>
       </c>
       <c r="E4">
-        <v>16.39247325198864</v>
+        <v>12.29430026718418</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>49.09010777741227</v>
+        <v>44.56257863233514</v>
       </c>
       <c r="H4">
-        <v>19.09648318718517</v>
+        <v>13.38788885096698</v>
       </c>
       <c r="I4">
-        <v>26.40141802202226</v>
+        <v>18.72425117278241</v>
       </c>
       <c r="J4">
-        <v>9.433707329963505</v>
+        <v>5.719854764176576</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.59398832533816</v>
+        <v>21.32753265147149</v>
       </c>
       <c r="C5">
-        <v>14.13853945566916</v>
+        <v>18.43005458587423</v>
       </c>
       <c r="D5">
-        <v>14.95525466792139</v>
+        <v>11.21646138665418</v>
       </c>
       <c r="E5">
-        <v>16.38195536308291</v>
+        <v>12.1531477622658</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>49.03317941890523</v>
+        <v>44.01447392200936</v>
       </c>
       <c r="H5">
-        <v>19.10619474344541</v>
+        <v>13.32431244136727</v>
       </c>
       <c r="I5">
-        <v>26.42573045349909</v>
+        <v>18.68388780385942</v>
       </c>
       <c r="J5">
-        <v>9.437889351207309</v>
+        <v>5.700155037926201</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.57123343897534</v>
+        <v>21.24835429437938</v>
       </c>
       <c r="C6">
-        <v>14.11668112873222</v>
+        <v>18.36094941273901</v>
       </c>
       <c r="D6">
-        <v>14.95348199818504</v>
+        <v>11.19432415233844</v>
       </c>
       <c r="E6">
-        <v>16.38027052768145</v>
+        <v>12.12973168241837</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>49.0240225108813</v>
+        <v>43.92388374873615</v>
       </c>
       <c r="H6">
-        <v>19.10788493116121</v>
+        <v>13.31397728676381</v>
       </c>
       <c r="I6">
-        <v>26.42988530058553</v>
+        <v>18.67758675183101</v>
       </c>
       <c r="J6">
-        <v>9.43860764233921</v>
+        <v>5.696938744311204</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.72894442466023</v>
+        <v>21.79282909229513</v>
       </c>
       <c r="C7">
-        <v>14.26804652271538</v>
+        <v>18.83639420663891</v>
       </c>
       <c r="D7">
-        <v>14.9661156870538</v>
+        <v>11.3480408915664</v>
       </c>
       <c r="E7">
-        <v>16.39232727395023</v>
+        <v>12.29239523726722</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>49.08932019269835</v>
+        <v>44.55515867014375</v>
       </c>
       <c r="H7">
-        <v>19.09660895459353</v>
+        <v>13.38701648794988</v>
       </c>
       <c r="I7">
-        <v>26.40173800239743</v>
+        <v>18.72367965281768</v>
       </c>
       <c r="J7">
-        <v>9.433762129622259</v>
+        <v>5.719585394258699</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.41755902037194</v>
+        <v>24.07044040861789</v>
       </c>
       <c r="C8">
-        <v>14.92562597230209</v>
+        <v>20.83120359757314</v>
       </c>
       <c r="D8">
-        <v>15.02997604783018</v>
+        <v>12.02696595305366</v>
       </c>
       <c r="E8">
-        <v>16.45445679007261</v>
+        <v>13.01252550979331</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>49.42030383091194</v>
+        <v>47.39949243960177</v>
       </c>
       <c r="H8">
-        <v>19.05817718460541</v>
+        <v>13.74249780347551</v>
       </c>
       <c r="I8">
-        <v>26.29475363681401</v>
+        <v>18.98827451857381</v>
       </c>
       <c r="J8">
-        <v>9.415853303505683</v>
+        <v>5.827673146859349</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.72777929127363</v>
+        <v>28.10225048426303</v>
       </c>
       <c r="C9">
-        <v>16.16440061315024</v>
+        <v>24.38569590365204</v>
       </c>
       <c r="D9">
-        <v>15.18388246715516</v>
+        <v>13.354458077844</v>
       </c>
       <c r="E9">
-        <v>16.60794603795851</v>
+        <v>14.42697987423944</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>50.2207858006281</v>
+        <v>53.17125773746949</v>
       </c>
       <c r="H9">
-        <v>19.02394783947749</v>
+        <v>14.56788541126154</v>
       </c>
       <c r="I9">
-        <v>26.14781331876145</v>
+        <v>19.75439835387439</v>
       </c>
       <c r="J9">
-        <v>9.393250543403818</v>
+        <v>6.07081556092769</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.65491437900855</v>
+        <v>30.81531844964494</v>
       </c>
       <c r="C10">
-        <v>17.03319851627699</v>
+        <v>26.7947872222081</v>
       </c>
       <c r="D10">
-        <v>15.313923332214</v>
+        <v>14.32519072170739</v>
       </c>
       <c r="E10">
-        <v>16.73953426974677</v>
+        <v>15.46551229233349</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>50.89807844232674</v>
+        <v>57.52960663574608</v>
       </c>
       <c r="H10">
-        <v>19.02422263026427</v>
+        <v>15.26131994297988</v>
       </c>
       <c r="I10">
-        <v>26.0790070554962</v>
+        <v>20.49306761977398</v>
       </c>
       <c r="J10">
-        <v>9.384301363569172</v>
+        <v>6.270491675457186</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.06696265114226</v>
+        <v>31.99949203893975</v>
       </c>
       <c r="C11">
-        <v>17.41761756898315</v>
+        <v>27.85087001800495</v>
       </c>
       <c r="D11">
-        <v>15.37663452852016</v>
+        <v>14.76612974133698</v>
       </c>
       <c r="E11">
-        <v>16.80335895522751</v>
+        <v>15.93823788092288</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>51.22470844464529</v>
+        <v>59.54176283939579</v>
       </c>
       <c r="H11">
-        <v>19.02992949333699</v>
+        <v>15.59786866341752</v>
       </c>
       <c r="I11">
-        <v>26.05637303832021</v>
+        <v>20.87283375856686</v>
       </c>
       <c r="J11">
-        <v>9.381897166128802</v>
+        <v>6.366442412660864</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.22145003725028</v>
+        <v>32.44109852316004</v>
       </c>
       <c r="C12">
-        <v>17.56150252242429</v>
+        <v>28.24545136783844</v>
       </c>
       <c r="D12">
-        <v>15.40088013947292</v>
+        <v>14.93309131464428</v>
       </c>
       <c r="E12">
-        <v>16.82808556810081</v>
+        <v>16.11738498808369</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>51.35097521975063</v>
+        <v>60.30857843501182</v>
       </c>
       <c r="H12">
-        <v>19.03289711619911</v>
+        <v>15.72856058299262</v>
       </c>
       <c r="I12">
-        <v>26.04906096469591</v>
+        <v>21.02341817743794</v>
       </c>
       <c r="J12">
-        <v>9.381226646407818</v>
+        <v>6.403567652097145</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.18824942214702</v>
+        <v>32.3462871783135</v>
       </c>
       <c r="C13">
-        <v>17.53059126984154</v>
+        <v>28.16070158002055</v>
       </c>
       <c r="D13">
-        <v>15.39563646970608</v>
+        <v>14.89713189040934</v>
       </c>
       <c r="E13">
-        <v>16.82273566014089</v>
+        <v>16.07879432114057</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>51.32366813102319</v>
+        <v>60.14320241946458</v>
       </c>
       <c r="H13">
-        <v>19.0322220589129</v>
+        <v>15.70026545035975</v>
       </c>
       <c r="I13">
-        <v>26.05057956364599</v>
+        <v>20.99067764767403</v>
       </c>
       <c r="J13">
-        <v>9.381360382830312</v>
+        <v>6.395535904484609</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.07970421983601</v>
+        <v>32.03595749698259</v>
       </c>
       <c r="C14">
-        <v>17.4294895710313</v>
+        <v>27.88343691419943</v>
       </c>
       <c r="D14">
-        <v>15.37861932140882</v>
+        <v>14.77986538123062</v>
       </c>
       <c r="E14">
-        <v>16.80538212872059</v>
+        <v>15.95297296131915</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>51.23504531078065</v>
+        <v>59.60474745281754</v>
       </c>
       <c r="H14">
-        <v>19.03015745698455</v>
+        <v>15.608554304247</v>
       </c>
       <c r="I14">
-        <v>26.05574616820229</v>
+        <v>20.88508372534945</v>
       </c>
       <c r="J14">
-        <v>9.381837193246199</v>
+        <v>6.369480526388749</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.01301156637203</v>
+        <v>31.84499623967377</v>
       </c>
       <c r="C15">
-        <v>17.36733858801727</v>
+        <v>27.71292225587206</v>
       </c>
       <c r="D15">
-        <v>15.36826031265942</v>
+        <v>14.70803787550667</v>
       </c>
       <c r="E15">
-        <v>16.79482481642839</v>
+        <v>15.87592518794186</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>51.18109450703624</v>
+        <v>59.27558326526482</v>
       </c>
       <c r="H15">
-        <v>19.02899797013985</v>
+        <v>15.55280859299258</v>
       </c>
       <c r="I15">
-        <v>26.05907517947335</v>
+        <v>20.82130178800492</v>
       </c>
       <c r="J15">
-        <v>9.382160500002298</v>
+        <v>6.353625653112509</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.62777749902213</v>
+        <v>30.73695467607738</v>
       </c>
       <c r="C16">
-        <v>17.0078467496946</v>
+        <v>26.72500061556459</v>
       </c>
       <c r="D16">
-        <v>15.309895456064</v>
+        <v>14.29636706067054</v>
       </c>
       <c r="E16">
-        <v>16.73544190660823</v>
+        <v>15.43463129427598</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>50.87709809616788</v>
+        <v>57.39874777594535</v>
       </c>
       <c r="H16">
-        <v>19.02396234298885</v>
+        <v>15.2397677554794</v>
       </c>
       <c r="I16">
-        <v>26.08066173420582</v>
+        <v>20.4691698611837</v>
       </c>
       <c r="J16">
-        <v>9.384492044144888</v>
+        <v>6.26432849694529</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.38885041373343</v>
+        <v>30.04465083191988</v>
       </c>
       <c r="C17">
-        <v>16.78444401560378</v>
+        <v>26.10900440797757</v>
       </c>
       <c r="D17">
-        <v>15.27499208918206</v>
+        <v>14.04369627795659</v>
       </c>
       <c r="E17">
-        <v>16.70001924641772</v>
+        <v>15.16403720332405</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>50.69529296573102</v>
+        <v>56.2552841703523</v>
       </c>
       <c r="H17">
-        <v>19.02230578279321</v>
+        <v>15.05327295867197</v>
       </c>
       <c r="I17">
-        <v>26.09613331202883</v>
+        <v>20.26468606510421</v>
       </c>
       <c r="J17">
-        <v>9.386349460480877</v>
+        <v>6.210894082861759</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.25051992471229</v>
+        <v>29.64172309878808</v>
       </c>
       <c r="C18">
-        <v>16.65493890035334</v>
+        <v>25.75092457976892</v>
       </c>
       <c r="D18">
-        <v>15.25525204050172</v>
+        <v>13.89829768379057</v>
       </c>
       <c r="E18">
-        <v>16.68001904390842</v>
+        <v>15.00841742267522</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>50.59247279840704</v>
+        <v>55.60032128467493</v>
       </c>
       <c r="H18">
-        <v>19.02187817437645</v>
+        <v>14.94797764276388</v>
       </c>
       <c r="I18">
-        <v>26.10584714860782</v>
+        <v>20.15115891999645</v>
       </c>
       <c r="J18">
-        <v>9.387574679658213</v>
+        <v>6.180637827791199</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.2035328148003</v>
+        <v>29.50447508936155</v>
       </c>
       <c r="C19">
-        <v>16.61092157376293</v>
+        <v>25.62902547182121</v>
       </c>
       <c r="D19">
-        <v>15.24862639193809</v>
+        <v>13.8490546544141</v>
       </c>
       <c r="E19">
-        <v>16.67331191428766</v>
+        <v>14.95572844415187</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>50.55796257842258</v>
+        <v>55.3790161139763</v>
       </c>
       <c r="H19">
-        <v>19.02182346743978</v>
+        <v>14.91265914630501</v>
       </c>
       <c r="I19">
-        <v>26.10927566333395</v>
+        <v>20.11340822758799</v>
       </c>
       <c r="J19">
-        <v>9.388016454812146</v>
+        <v>6.17047413616722</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.41437950587262</v>
+        <v>30.11883501144315</v>
       </c>
       <c r="C20">
-        <v>16.80833113835511</v>
+        <v>26.17496630103533</v>
       </c>
       <c r="D20">
-        <v>15.27867298588802</v>
+        <v>14.07060022254871</v>
       </c>
       <c r="E20">
-        <v>16.70375143157006</v>
+        <v>15.19283994697597</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>50.71446597585375</v>
+        <v>56.37672198499322</v>
       </c>
       <c r="H20">
-        <v>19.02242773977325</v>
+        <v>15.07292016829142</v>
       </c>
       <c r="I20">
-        <v>26.09440189292598</v>
+        <v>20.28602737540584</v>
       </c>
       <c r="J20">
-        <v>9.386135496836593</v>
+        <v>6.216532451637525</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.11162966747915</v>
+        <v>32.12729052593626</v>
       </c>
       <c r="C21">
-        <v>17.45923233633296</v>
+        <v>27.96501762071394</v>
       </c>
       <c r="D21">
-        <v>15.38360425591954</v>
+        <v>14.81430884616864</v>
       </c>
       <c r="E21">
-        <v>16.8104642532356</v>
+        <v>15.98992503153506</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>51.26100669710198</v>
+        <v>59.76276674969044</v>
       </c>
       <c r="H21">
-        <v>19.03074196323616</v>
+        <v>15.63540203853819</v>
       </c>
       <c r="I21">
-        <v>26.05419434597817</v>
+        <v>20.91591128140305</v>
       </c>
       <c r="J21">
-        <v>9.381690630442838</v>
+        <v>6.377111668806903</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.55825026582948</v>
+        <v>33.40042660717993</v>
       </c>
       <c r="C22">
-        <v>17.87475449537398</v>
+        <v>29.10405366667755</v>
       </c>
       <c r="D22">
-        <v>15.45508041556944</v>
+        <v>15.30036640902704</v>
       </c>
       <c r="E22">
-        <v>16.88345083583094</v>
+        <v>16.51174337747708</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>51.63319141288404</v>
+        <v>62.00452812339478</v>
       </c>
       <c r="H22">
-        <v>19.04087834354905</v>
+        <v>16.02207912321151</v>
       </c>
       <c r="I22">
-        <v>26.03525984544931</v>
+        <v>21.36732495900583</v>
       </c>
       <c r="J22">
-        <v>9.380184000807947</v>
+        <v>6.486702665204515</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.32075640357863</v>
+        <v>32.72440624449548</v>
       </c>
       <c r="C23">
-        <v>17.65392642841513</v>
+        <v>28.49880747395263</v>
       </c>
       <c r="D23">
-        <v>15.41667162989496</v>
+        <v>15.04090844515487</v>
       </c>
       <c r="E23">
-        <v>16.84420411503792</v>
+        <v>16.23311344063361</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>51.4332077647712</v>
+        <v>60.80515069627452</v>
       </c>
       <c r="H23">
-        <v>19.03503697392977</v>
+        <v>15.81387671058098</v>
       </c>
       <c r="I23">
-        <v>26.0446895935732</v>
+        <v>21.12258864496066</v>
       </c>
       <c r="J23">
-        <v>9.380860120042096</v>
+        <v>6.427765887768714</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.40284080726684</v>
+        <v>30.08531167471514</v>
       </c>
       <c r="C24">
-        <v>16.79753508619852</v>
+        <v>26.14515721590955</v>
       </c>
       <c r="D24">
-        <v>15.27700783497177</v>
+        <v>14.05843737452419</v>
       </c>
       <c r="E24">
-        <v>16.70206297359061</v>
+        <v>15.17981839376213</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>50.70579255019222</v>
+        <v>56.32181242393853</v>
       </c>
       <c r="H24">
-        <v>19.02237096878417</v>
+        <v>15.06403169065478</v>
       </c>
       <c r="I24">
-        <v>26.09518211741011</v>
+        <v>20.27636644230596</v>
       </c>
       <c r="J24">
-        <v>9.386231739657644</v>
+        <v>6.213981904159417</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.37882340619233</v>
+        <v>27.05652735107145</v>
       </c>
       <c r="C25">
-        <v>15.83585391665332</v>
+        <v>23.46089355291386</v>
       </c>
       <c r="D25">
-        <v>15.13922570968535</v>
+        <v>12.99611312427966</v>
       </c>
       <c r="E25">
-        <v>16.56307915718248</v>
+        <v>14.04444316136146</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>49.98831080081817</v>
+        <v>51.58975114405842</v>
       </c>
       <c r="H25">
-        <v>19.02876585531095</v>
+        <v>14.32998653072702</v>
       </c>
       <c r="I25">
-        <v>26.18074730538033</v>
+        <v>19.51809631734594</v>
       </c>
       <c r="J25">
-        <v>9.398022172077329</v>
+        <v>6.001506276904331</v>
       </c>
       <c r="K25">
         <v>0</v>
